--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_150.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1017241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03377633934719736</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:07.870000', '0:00:14.660000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:41.700000', '0:00:45.420000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1798449612403101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
+          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[['C/5', 'G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3095238095238095</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:49.280000', '0:00:58.700000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2072072072072072</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['C', 'C/7', 'C/6'], ['F/5', 'C', 'C/7'], ['F/7', 'F/6', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46), (16.24, 18.88)]</t>
+          <t>[['Eb', 'Eb', 'Eb'], ['Ab', 'Eb', 'Eb'], ['Ab', 'Ab', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
+          <t>[('0:01:09.901000', '0:01:17.903000'), ('0:00:08.528000', '0:00:13.333000'), ('0:00:32.090000', '0:00:37.538000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:17.940000', '0:00:18.860000'), ('0:03:55.660000', '0:03:59.340000'), ('0:03:54.420000', '0:03:58.130000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1426282051282051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(76.56, 87.04), (21.58, 29.34)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62), (61.6, 63.84)]</t>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.6, 47.44)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.04, 17.48)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(44.07, 46.31)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.475</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'A'], ['G', 'D', 'D'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:maj'], ['C:maj', 'G/3', 'G:maj'], ['G:maj', 'C:maj', 'G/3']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(59.20524, 66.101566), (10.919344, 16.143834), (144.085784, 149.240614)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.277, 24.195), (40.171, 43.498), (5.146, 9.474)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06574239713774598</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.425</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.46, 60.99)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.14, 42.54)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(133.919, 142.421), (134.784, 143.322)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(28.210155, 42.831033), (26.391305, 41.205636)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (40.82, 43.62), (94.8, 106.96)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78), (24.68, 28.56), (8.4, 12.14)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
